--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Proc-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Proc-Thbd.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Proc</t>
+  </si>
+  <si>
+    <t>Thbd</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Proc</t>
-  </si>
-  <si>
-    <t>Thbd</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H2">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I2">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.30519333333334</v>
+        <v>30.66015566666666</v>
       </c>
       <c r="N2">
-        <v>117.91558</v>
+        <v>91.98046699999999</v>
       </c>
       <c r="O2">
-        <v>0.5006492135628842</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="P2">
-        <v>0.5206099073015165</v>
+        <v>0.5341319965630132</v>
       </c>
       <c r="Q2">
-        <v>10.84939941406889</v>
+        <v>8.486363166665333</v>
       </c>
       <c r="R2">
-        <v>97.64459472662</v>
+        <v>76.37726849998799</v>
       </c>
       <c r="S2">
-        <v>0.2499812214214543</v>
+        <v>0.5275983757543724</v>
       </c>
       <c r="T2">
-        <v>0.2599478776470635</v>
+        <v>0.5341319965630132</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H3">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I3">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.203413</v>
       </c>
       <c r="O3">
-        <v>0.1155009993138849</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="P3">
-        <v>0.1201059802293714</v>
+        <v>0.1579706406471956</v>
       </c>
       <c r="Q3">
-        <v>2.502983007528556</v>
+        <v>2.509859425814666</v>
       </c>
       <c r="R3">
-        <v>22.526847067757</v>
+        <v>22.588734832332</v>
       </c>
       <c r="S3">
-        <v>0.05767127981367915</v>
+        <v>0.1560383088050138</v>
       </c>
       <c r="T3">
-        <v>0.05997061180640028</v>
+        <v>0.1579706406471956</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H4">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I4">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.207392666666666</v>
+        <v>9.372717333333334</v>
       </c>
       <c r="N4">
-        <v>18.622178</v>
+        <v>28.118152</v>
       </c>
       <c r="O4">
-        <v>0.07906655567082858</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="P4">
-        <v>0.08221890917495667</v>
+        <v>0.1632825441886731</v>
       </c>
       <c r="Q4">
-        <v>1.713424528649111</v>
+        <v>2.594255685258667</v>
       </c>
       <c r="R4">
-        <v>15.420820757842</v>
+        <v>23.348301167328</v>
       </c>
       <c r="S4">
-        <v>0.03947904765398885</v>
+        <v>0.1612852359666163</v>
       </c>
       <c r="T4">
-        <v>0.04105306226934419</v>
+        <v>0.1632825441886731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H5">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I5">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.030272500000001</v>
+        <v>2.1325415</v>
       </c>
       <c r="N5">
-        <v>18.060545</v>
+        <v>4.265083000000001</v>
       </c>
       <c r="O5">
-        <v>0.1150229382423478</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="P5">
-        <v>0.07973923936315172</v>
+        <v>0.02476740304326751</v>
       </c>
       <c r="Q5">
-        <v>2.492623108084167</v>
+        <v>0.590261896702</v>
       </c>
       <c r="R5">
-        <v>14.955738648505</v>
+        <v>3.541571380212</v>
       </c>
       <c r="S5">
-        <v>0.05743257717051224</v>
+        <v>0.03669666403070534</v>
       </c>
       <c r="T5">
-        <v>0.03981492811975555</v>
+        <v>0.02476740304326751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2760296666666667</v>
+        <v>0.276788</v>
       </c>
       <c r="H6">
-        <v>0.828089</v>
+        <v>0.830364</v>
       </c>
       <c r="I6">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4993141198454222</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.89778633333333</v>
+        <v>6.879461333333333</v>
       </c>
       <c r="N6">
-        <v>44.69335899999999</v>
+        <v>20.638384</v>
       </c>
       <c r="O6">
-        <v>0.1897602932100546</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="P6">
-        <v>0.1973259639310038</v>
+        <v>0.1198474155578504</v>
       </c>
       <c r="Q6">
-        <v>4.112230995661221</v>
+        <v>1.904152343530666</v>
       </c>
       <c r="R6">
-        <v>37.01007896095099</v>
+        <v>17.137371091776</v>
       </c>
       <c r="S6">
-        <v>0.09474999378578766</v>
+        <v>0.1183814154432922</v>
       </c>
       <c r="T6">
-        <v>0.09852764000285869</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G7">
-        <v>0.276788</v>
-      </c>
-      <c r="H7">
-        <v>0.830364</v>
-      </c>
-      <c r="I7">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J7">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>39.30519333333334</v>
-      </c>
-      <c r="N7">
-        <v>117.91558</v>
-      </c>
-      <c r="O7">
-        <v>0.5006492135628842</v>
-      </c>
-      <c r="P7">
-        <v>0.5206099073015165</v>
-      </c>
-      <c r="Q7">
-        <v>10.87920585234667</v>
-      </c>
-      <c r="R7">
-        <v>97.91285267112001</v>
-      </c>
-      <c r="S7">
-        <v>0.2506679921414298</v>
-      </c>
-      <c r="T7">
-        <v>0.260662029654453</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.276788</v>
-      </c>
-      <c r="H8">
-        <v>0.830364</v>
-      </c>
-      <c r="I8">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J8">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.067804333333333</v>
-      </c>
-      <c r="N8">
-        <v>27.203413</v>
-      </c>
-      <c r="O8">
-        <v>0.1155009993138849</v>
-      </c>
-      <c r="P8">
-        <v>0.1201059802293714</v>
-      </c>
-      <c r="Q8">
-        <v>2.509859425814666</v>
-      </c>
-      <c r="R8">
-        <v>22.588734832332</v>
-      </c>
-      <c r="S8">
-        <v>0.05782971950020573</v>
-      </c>
-      <c r="T8">
-        <v>0.06013536842297116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.276788</v>
-      </c>
-      <c r="H9">
-        <v>0.830364</v>
-      </c>
-      <c r="I9">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J9">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>6.207392666666666</v>
-      </c>
-      <c r="N9">
-        <v>18.622178</v>
-      </c>
-      <c r="O9">
-        <v>0.07906655567082858</v>
-      </c>
-      <c r="P9">
-        <v>0.08221890917495667</v>
-      </c>
-      <c r="Q9">
-        <v>1.718131801421333</v>
-      </c>
-      <c r="R9">
-        <v>15.463186212792</v>
-      </c>
-      <c r="S9">
-        <v>0.03958750801683972</v>
-      </c>
-      <c r="T9">
-        <v>0.04116584690561247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.276788</v>
-      </c>
-      <c r="H10">
-        <v>0.830364</v>
-      </c>
-      <c r="I10">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J10">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.030272500000001</v>
-      </c>
-      <c r="N10">
-        <v>18.060545</v>
-      </c>
-      <c r="O10">
-        <v>0.1150229382423478</v>
-      </c>
-      <c r="P10">
-        <v>0.07973923936315172</v>
-      </c>
-      <c r="Q10">
-        <v>2.49947106473</v>
-      </c>
-      <c r="R10">
-        <v>14.99682638838</v>
-      </c>
-      <c r="S10">
-        <v>0.05759036107183554</v>
-      </c>
-      <c r="T10">
-        <v>0.03992431124339618</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.276788</v>
-      </c>
-      <c r="H11">
-        <v>0.830364</v>
-      </c>
-      <c r="I11">
-        <v>0.5006858801545777</v>
-      </c>
-      <c r="J11">
-        <v>0.5006858801545778</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>14.89778633333333</v>
-      </c>
-      <c r="N11">
-        <v>44.69335899999999</v>
-      </c>
-      <c r="O11">
-        <v>0.1897602932100546</v>
-      </c>
-      <c r="P11">
-        <v>0.1973259639310038</v>
-      </c>
-      <c r="Q11">
-        <v>4.123528483630666</v>
-      </c>
-      <c r="R11">
-        <v>37.111756352676</v>
-      </c>
-      <c r="S11">
-        <v>0.09501029942426692</v>
-      </c>
-      <c r="T11">
-        <v>0.09879832392814511</v>
+        <v>0.1198474155578504</v>
       </c>
     </row>
   </sheetData>
